--- a/plots/plot_video_compression.xlsx
+++ b/plots/plot_video_compression.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjohn/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjohn/git/thesis/disparity-thesis/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="28980" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="cambridge" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="mean_results" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/bjohn/Desktop/datasets/cambridge/03-tanks/eval/mean_results.csv" tab="0" semicolon="1">
+    <textPr fileType="mac" sourceFile="/Users/bjohn/Desktop/datasets/cambridge/03-tanks/eval/mean_results.csv" tab="0" semicolon="1">
       <textFields count="22">
         <textField/>
         <textField/>
@@ -66,7 +66,7 @@
     </textPr>
   </connection>
   <connection id="2" name="mean_results1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/bjohn/Desktop/datasets/cambridge-vc-40/03-tanks/eval/mean_results.csv" tab="0" semicolon="1">
+    <textPr fileType="mac" sourceFile="/Users/bjohn/Desktop/datasets/cambridge-vc-40/03-tanks/eval/mean_results.csv" tab="0" semicolon="1">
       <textFields count="22">
         <textField/>
         <textField/>
@@ -94,7 +94,7 @@
     </textPr>
   </connection>
   <connection id="3" name="mean_results2" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/bjohn/Desktop/datasets/cambridge-vc-28/03-tanks/eval/mean_results.csv" comma="1" semicolon="1">
+    <textPr fileType="mac" sourceFile="/Users/bjohn/Desktop/datasets/cambridge-vc-28/03-tanks/eval/mean_results.csv" comma="1" semicolon="1">
       <textFields count="22">
         <textField/>
         <textField/>
@@ -122,7 +122,7 @@
     </textPr>
   </connection>
   <connection id="4" name="mean_results3" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/bjohn/Desktop/datasets/cambridge-vc-14/03-tanks/eval/mean_results.csv" comma="1" semicolon="1">
+    <textPr fileType="mac" sourceFile="/Users/bjohn/Desktop/datasets/cambridge-vc-14/03-tanks/eval/mean_results.csv" comma="1" semicolon="1">
       <textFields count="22">
         <textField/>
         <textField/>
@@ -215,9 +215,6 @@
     <t>pbmpSal4</t>
   </si>
   <si>
-    <t>03-tank</t>
-  </si>
-  <si>
     <t>03-tank CRF=14</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>03-tank CRF=40</t>
+  </si>
+  <si>
+    <t>03-tank CRF=0</t>
   </si>
 </sst>
 </file>
@@ -305,7 +305,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>03-tank</c:v>
+                  <c:v>03-tank CRF=0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -609,16 +609,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2116797472"/>
-        <c:axId val="-2120152112"/>
+        <c:axId val="2136385696"/>
+        <c:axId val="2136389440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2116797472"/>
+        <c:axId val="2136385696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -656,7 +712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120152112"/>
+        <c:crossAx val="2136389440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -664,12 +720,82 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120152112"/>
+        <c:axId val="2136389440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>PBMP_noc,1px</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -701,7 +827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116797472"/>
+        <c:crossAx val="2136385696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1342,14 +1468,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -1655,7 +1781,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1695,7 +1821,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -2628,10 +2754,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -3565,10 +3691,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -4498,10 +4624,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
